--- a/Benchmarks-results/Prometheus/matrix multiplication wykresy/summary.xlsx
+++ b/Benchmarks-results/Prometheus/matrix multiplication wykresy/summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>matrix size</t>
   </si>
@@ -70,6 +70,33 @@
   </si>
   <si>
     <t xml:space="preserve">całkowite zużycie energii [J]/czas[s] = [W]                                                                                    </t>
+  </si>
+  <si>
+    <t>2 CPU 12x cores MAX LWS 4096</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>TEMP 1 GPU</t>
+  </si>
+  <si>
+    <t>min temp 1 GPU</t>
+  </si>
+  <si>
+    <t>max temp 1 GPU</t>
+  </si>
+  <si>
+    <t>min temp 2 GPU</t>
+  </si>
+  <si>
+    <t>max temp 2 GPU</t>
+  </si>
+  <si>
+    <t>TEMP 2 GPU</t>
   </si>
 </sst>
 </file>
@@ -110,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -124,6 +151,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -148,8 +178,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>czas w zależności od wielkości macierzy dla jednej oraz dwóch kart</a:t>
+              <a:t>Zużycie energii dla</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> zmiennej wielkości macierzy</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -157,154 +192,305 @@
     </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>czas [s] - jedna karta</c:v>
+            <c:v>1x CPU</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Arkusz1!$G$16:$G$20</c:f>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$9:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$9:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4096</c:v>
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2048</c:v>
+                  <c:v>24369</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Arkusz1!$H$6:$H$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>67.673940275999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.6610428620000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.275769618</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.49652079700000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.261852743</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+                  <c:v>225670</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>czas [s] - dwie karty</c:v>
+            <c:v>1x GPU</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Arkusz1!$G$16:$G$20</c:f>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$9:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$K$6:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.6659384020000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9512911580000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>194.95759727533334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1341.9188535318001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11128.382355385764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2x GPU</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$9:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$K$24:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.458739831999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.243606196000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160.97361490899999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>713.39050631299995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5858.5248019264582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2x CPU</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$9:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$18:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4096</c:v>
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2939</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2048</c:v>
+                  <c:v>22692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Arkusz1!$H$16:$H$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>23.965330705</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2717994389999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1879971579999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.54441450700000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.44495499399999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+                  <c:v>180330</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="72329472"/>
-        <c:axId val="72578176"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="72329472"/>
+        <c:axId val="96136192"/>
+        <c:axId val="54692096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="96136192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ilość</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> wierszy i kolumn</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t> macierzy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72578176"/>
+        <c:crossAx val="54692096"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="72578176"/>
+        <c:axId val="54692096"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Energia [J]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72329472"/>
+        <c:crossAx val="96136192"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -315,7 +501,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -336,11 +522,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>czas wykonania zadania w</a:t>
+              <a:t>Czas wykonania zadania dla zmiennego problemu dla</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> zależności od rozmiaru macierzy dla jednego procesora</a:t>
+              <a:t> wielu urządzeń</a:t>
             </a:r>
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
@@ -350,90 +536,303 @@
     </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>czas [s]</c:v>
+            <c:v>1x CPU</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Arkusz1!$B$10:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$G$6:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$9:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0.19269151100000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46063571399999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.140396260999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125.71308469100001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>914.84997905099999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2x CPU</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$G$6:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8192</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4" formatCode="General">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$18:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.7417627100000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92638847099999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.305996993999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.309312790000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>611.73741620500005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1x GPU</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$G$6:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4096</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$6:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.261852743</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49652079700000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.275769618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6610428620000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.673940275999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2x GPU</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$G$6:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2048</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Arkusz1!$C$10:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000000</c:formatCode>
-                <c:ptCount val="4"/>
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$16:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>125.71308469100001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.140396260999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.46063571399999997</c:v>
+                  <c:v>0.44495499399999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54441450700000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1879971579999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19269151100000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+                  <c:v>4.2717994389999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.965330705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="128353792"/>
-        <c:axId val="140708480"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="128353792"/>
+        <c:axId val="55605888"/>
+        <c:axId val="58314752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="55605888"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1024"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ilość wierszy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> i kolumn macierzy</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58314752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="58314752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140708480"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="140708480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:min val="-10"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.000000000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>czas [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128353792"/>
+        <c:crossAx val="55605888"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -444,7 +843,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -454,111 +853,167 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="pl-PL"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Zużycie energii dla jednej karty</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> w zależności od czasu trwania zadania</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>max dla 1 z 2 GPU</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$54:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$D$54:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:v>Energia [J]</c:v>
+            <c:v>min dla 1 z 2 GPU</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$H$6:$H$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Arkusz1!$B$54:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>67.673940275999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.6610428620000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.275769618</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.49652079700000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.261852743</c:v>
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$K$6:$K$10</c:f>
+              <c:f>Arkusz1!$C$54:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11128.382355385764</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1341.9188535318001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>194.95759727533334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9512911580000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6659384020000001</c:v>
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="80815232"/>
-        <c:axId val="80816768"/>
-      </c:lineChart>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>min dla 2 z 2 GPU</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$54:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>max dla 2 z 2 GPU</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$F$54:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="153"/>
+        <c:axId val="83897344"/>
+        <c:axId val="83935616"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="80815232"/>
+        <c:axId val="83897344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80816768"/>
+        <c:crossAx val="83935616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80816768"/>
+        <c:axId val="83935616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -566,305 +1021,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80815232"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pl-PL"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>zużycie energii dla dwóch</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> kart w zależności od czasu trwania zadania</a:t>
-            </a:r>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Energia [J] - karta nr 1</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Arkusz1!$H$16:$H$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>23.965330705</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2717994389999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1879971579999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.54441450700000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.44495499399999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Arkusz1!$I$24:$I$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2789.9639162404169</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>355.41371332479997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>77.219815269999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.6218030980000009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.2293699159999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Energia [J] - karta nr 2</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Arkusz1!$J$24:$J$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3068.5608856860413</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>357.97679298819997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>83.753799638999993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.6218030980000009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.2293699159999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="70202880"/>
-        <c:axId val="70204800"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="70202880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70204800"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="70204800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70202880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pl-PL"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Zużycie</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> energii dla procesora w zależności od długości zadania</a:t>
-            </a:r>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Energia [J]</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Arkusz1!$C$10:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>125.71308469100001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.140396260999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.46063571399999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.19269151100000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Arkusz1!$E$10:$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>24369</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2894</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>121</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="140763520"/>
-        <c:axId val="140765824"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="140763520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0.000000000" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140765824"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="140765824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140763520"/>
+        <c:crossAx val="83897344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -877,7 +1034,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -887,20 +1044,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvPr id="7" name="Wykres 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -917,20 +1074,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -947,76 +1104,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Wykres 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Wykres 7"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2486024</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>704849</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1029,7 +1126,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1323,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K28"/>
+  <dimension ref="A2:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1378,40 +1475,40 @@
         <v>16</v>
       </c>
       <c r="G6">
-        <v>16384</v>
+        <v>1024</v>
       </c>
       <c r="H6" s="5">
-        <v>67.673940275999996</v>
+        <v>0.261852743</v>
       </c>
       <c r="I6">
-        <v>164.44117647058823</v>
-      </c>
-      <c r="J6">
-        <v>19</v>
-      </c>
-      <c r="K6">
-        <v>11128.382355385764</v>
+        <v>14</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="5">
+        <v>3.6659384020000001</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1"/>
-      <c r="G7">
-        <v>8192</v>
+      <c r="G7" s="3">
+        <v>2048</v>
       </c>
       <c r="H7" s="5">
-        <v>9.6610428620000004</v>
+        <v>0.49652079700000001</v>
       </c>
       <c r="I7">
-        <v>138.9</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <v>1341.9188535318001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="24.75" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="5">
+        <v>6.9512911580000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1424,126 +1521,138 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>4096</v>
       </c>
       <c r="H8" s="5">
         <v>2.275769618</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <v>85.666666666666671</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <v>194.95759727533334</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="C9" s="6"/>
-      <c r="G9">
+      <c r="B9">
+        <v>1024</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.19269151100000001</v>
+      </c>
+      <c r="D9" s="5">
+        <f>E9/C9</f>
+        <v>627.94670804153895</v>
+      </c>
+      <c r="E9">
+        <v>121</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8192</v>
+      </c>
+      <c r="H9" s="5">
+        <v>9.6610428620000004</v>
+      </c>
+      <c r="I9">
+        <v>138.9</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1341.9188535318001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="3">
         <v>2048</v>
       </c>
-      <c r="H9" s="5">
-        <v>0.49652079700000001</v>
-      </c>
-      <c r="I9">
-        <v>14</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>6.9512911580000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="B10">
-        <f>2*B11</f>
-        <v>8192</v>
-      </c>
-      <c r="C10" s="6">
-        <v>125.71308469100001</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="5">
+        <v>0.46063571399999997</v>
+      </c>
+      <c r="D10" s="5">
         <f>E10/C10</f>
-        <v>193.84617010948753</v>
+        <v>351.68788497367797</v>
       </c>
       <c r="E10">
-        <v>24369</v>
+        <v>162</v>
       </c>
       <c r="G10">
-        <v>1024</v>
+        <v>16384</v>
       </c>
       <c r="H10" s="5">
-        <v>0.261852743</v>
+        <v>67.673940275999996</v>
       </c>
       <c r="I10">
-        <v>14</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>3.6659384020000001</v>
+        <v>164.44117647058823</v>
+      </c>
+      <c r="J10">
+        <v>19</v>
+      </c>
+      <c r="K10" s="5">
+        <v>11128.382355385764</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11">
+      <c r="B11" s="3">
         <v>4096</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>14.140396260999999</v>
       </c>
-      <c r="D11">
-        <f t="shared" ref="D11:D13" si="0">E11/C11</f>
+      <c r="D11" s="5">
+        <f>E11/C11</f>
         <v>204.66187415000618</v>
       </c>
       <c r="E11">
         <v>2894</v>
       </c>
-      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12">
-        <v>2048</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.46063571399999997</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>351.68788497367797</v>
+      <c r="B12" s="3">
+        <v>8192</v>
+      </c>
+      <c r="C12" s="5">
+        <v>125.71308469100001</v>
+      </c>
+      <c r="D12" s="5">
+        <f>E12/C12</f>
+        <v>193.84617010948753</v>
       </c>
       <c r="E12">
-        <v>162</v>
+        <v>24369</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="B13">
-        <v>1024</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.19269151100000001</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>627.94670804153895</v>
+        <v>16384</v>
+      </c>
+      <c r="C13" s="5">
+        <v>914.84997905099999</v>
+      </c>
+      <c r="D13" s="5">
+        <f>E13/C13</f>
+        <v>246.67432384279437</v>
       </c>
       <c r="E13">
-        <v>121</v>
+        <v>225670</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="C14" s="1"/>
+      <c r="D14" s="5"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1562,51 +1671,70 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="1"/>
-      <c r="G16" s="1">
-        <v>16384</v>
-      </c>
-      <c r="H16" s="1">
-        <v>23.965330705</v>
-      </c>
-      <c r="I16">
-        <v>116.41666666666667</v>
+      <c r="G16">
+        <v>1024</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.44495499399999999</v>
+      </c>
+      <c r="I16" s="3">
+        <v>14</v>
       </c>
       <c r="J16">
-        <v>128.04166666666666</v>
+        <v>14</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="G17">
-        <v>8192</v>
-      </c>
-      <c r="H17" s="6">
-        <v>4.2717994389999996</v>
-      </c>
-      <c r="I17">
-        <v>83.2</v>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2048</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.54441450700000005</v>
+      </c>
+      <c r="I17" s="3">
+        <v>14</v>
       </c>
       <c r="J17">
-        <v>83.8</v>
-      </c>
-      <c r="K17" s="2">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="B18" s="6"/>
-      <c r="E18" s="2"/>
-      <c r="G18">
+      <c r="B18">
+        <v>1024</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2.7417627100000002</v>
+      </c>
+      <c r="D18">
+        <f>E18/C18</f>
+        <v>303.08968641564167</v>
+      </c>
+      <c r="E18">
+        <v>831</v>
+      </c>
+      <c r="G18" s="3">
         <v>4096</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="7">
         <v>1.1879971579999999</v>
       </c>
       <c r="I18" s="3">
@@ -1615,60 +1743,100 @@
       <c r="J18">
         <v>70.5</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="B19" s="6"/>
-      <c r="C19" s="3"/>
-      <c r="G19">
+      <c r="B19" s="3">
         <v>2048</v>
       </c>
-      <c r="H19" s="6">
-        <v>0.54441450700000005</v>
-      </c>
-      <c r="I19" s="3">
-        <v>14</v>
+      <c r="C19" s="5">
+        <v>0.92638847099999999</v>
+      </c>
+      <c r="D19">
+        <f>E19/C19</f>
+        <v>452.29405710080346</v>
+      </c>
+      <c r="E19">
+        <v>419</v>
+      </c>
+      <c r="G19" s="3">
+        <v>8192</v>
+      </c>
+      <c r="H19" s="7">
+        <v>4.2717994389999996</v>
+      </c>
+      <c r="I19">
+        <v>83.2</v>
       </c>
       <c r="J19">
-        <v>14</v>
-      </c>
-      <c r="K19" t="s">
-        <v>5</v>
+        <v>83.8</v>
+      </c>
+      <c r="K19" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="B20" s="6"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="3">
+        <v>4096</v>
+      </c>
+      <c r="C20" s="5">
+        <v>10.305996993999999</v>
+      </c>
+      <c r="D20">
+        <f>E20/C20</f>
+        <v>285.17376840989209</v>
+      </c>
+      <c r="E20">
+        <v>2939</v>
+      </c>
       <c r="G20">
-        <v>1024</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0.44495499399999999</v>
-      </c>
-      <c r="I20" s="3">
-        <v>14</v>
-      </c>
-      <c r="J20">
-        <v>14</v>
+        <v>16384</v>
+      </c>
+      <c r="H20" s="7">
+        <v>23.965330705</v>
+      </c>
+      <c r="I20" s="5">
+        <v>116.41666666666667</v>
+      </c>
+      <c r="J20" s="5">
+        <v>128.04166666666666</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="B21" s="6"/>
-      <c r="C21" s="3"/>
-      <c r="E21" s="2"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="3"/>
+      <c r="B21" s="3">
+        <v>8192</v>
+      </c>
+      <c r="C21" s="5">
+        <v>71.309312790000007</v>
+      </c>
+      <c r="D21">
+        <f>E21/C21</f>
+        <v>318.21930561616898</v>
+      </c>
+      <c r="E21">
+        <v>22692</v>
+      </c>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="B22" s="6"/>
-      <c r="C22" s="3"/>
-      <c r="E22" s="2"/>
+      <c r="B22">
+        <v>16384</v>
+      </c>
+      <c r="C22" s="5">
+        <v>611.73741620500005</v>
+      </c>
+      <c r="D22">
+        <f>E22/C22</f>
+        <v>294.7833420402871</v>
+      </c>
+      <c r="E22">
+        <v>180330</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="H23" s="6"/>
@@ -1685,64 +1853,186 @@
     <row r="24" spans="1:11">
       <c r="B24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24">
-        <v>2789.9639162404169</v>
-      </c>
-      <c r="J24">
-        <v>3068.5608856860413</v>
-      </c>
-      <c r="K24">
-        <v>5858.5248019264582</v>
+      <c r="I24" s="5">
+        <v>6.2293699159999996</v>
+      </c>
+      <c r="J24" s="5">
+        <v>6.2293699159999996</v>
+      </c>
+      <c r="K24" s="5">
+        <v>12.458739831999999</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="B25" s="6"/>
-      <c r="I25">
-        <f>I17*H17</f>
-        <v>355.41371332479997</v>
-      </c>
-      <c r="J25">
-        <f>J17*H17</f>
-        <v>357.97679298819997</v>
-      </c>
-      <c r="K25">
-        <f>I25+J25</f>
-        <v>713.39050631299995</v>
+      <c r="I25" s="5">
+        <v>7.6218030980000009</v>
+      </c>
+      <c r="J25" s="5">
+        <v>7.6218030980000009</v>
+      </c>
+      <c r="K25" s="5">
+        <v>15.243606196000002</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="H26" s="3"/>
-      <c r="I26">
+      <c r="I26" s="5">
         <v>77.219815269999998</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="5">
         <v>83.753799638999993</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="5">
         <v>160.97361490899999</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="B27" s="3"/>
-      <c r="I27">
-        <v>7.6218030980000009</v>
-      </c>
-      <c r="J27">
-        <v>7.6218030980000009</v>
-      </c>
-      <c r="K27">
-        <v>15.243606196000002</v>
+      <c r="I27" s="5">
+        <f>I19*H19</f>
+        <v>355.41371332479997</v>
+      </c>
+      <c r="J27" s="5">
+        <f>J19*H19</f>
+        <v>357.97679298819997</v>
+      </c>
+      <c r="K27" s="5">
+        <f>I27+J27</f>
+        <v>713.39050631299995</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="I28">
-        <v>6.2293699159999996</v>
-      </c>
-      <c r="J28">
-        <v>6.2293699159999996</v>
-      </c>
-      <c r="K28">
-        <v>12.458739831999999</v>
+      <c r="I28" s="5">
+        <v>2789.9639162404201</v>
+      </c>
+      <c r="J28" s="5">
+        <v>3068.5608856860413</v>
+      </c>
+      <c r="K28" s="5">
+        <v>5858.5248019264582</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47">
+        <v>4096</v>
+      </c>
+      <c r="C47">
+        <v>38</v>
+      </c>
+      <c r="D47">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48">
+        <v>8192</v>
+      </c>
+      <c r="C48">
+        <v>38</v>
+      </c>
+      <c r="D48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49">
+        <v>16384</v>
+      </c>
+      <c r="C49">
+        <v>38</v>
+      </c>
+      <c r="D49">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54">
+        <v>4096</v>
+      </c>
+      <c r="C54">
+        <v>34</v>
+      </c>
+      <c r="D54">
+        <v>36</v>
+      </c>
+      <c r="E54">
+        <v>34</v>
+      </c>
+      <c r="F54">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55">
+        <v>8192</v>
+      </c>
+      <c r="C55">
+        <v>34</v>
+      </c>
+      <c r="D55">
+        <v>40</v>
+      </c>
+      <c r="E55">
+        <v>34</v>
+      </c>
+      <c r="F55">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56">
+        <v>16384</v>
+      </c>
+      <c r="C56">
+        <v>43</v>
+      </c>
+      <c r="D56">
+        <v>81</v>
+      </c>
+      <c r="E56">
+        <v>38</v>
+      </c>
+      <c r="F56">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Benchmarks-results/Prometheus/matrix multiplication wykresy/summary.xlsx
+++ b/Benchmarks-results/Prometheus/matrix multiplication wykresy/summary.xlsx
@@ -418,11 +418,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="96136192"/>
-        <c:axId val="54692096"/>
+        <c:axId val="64389120"/>
+        <c:axId val="64391424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96136192"/>
+        <c:axId val="64389120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,12 +455,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54692096"/>
+        <c:crossAx val="64391424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54692096"/>
+        <c:axId val="64391424"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -488,7 +488,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96136192"/>
+        <c:crossAx val="64389120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -501,7 +501,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -762,11 +762,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="55605888"/>
-        <c:axId val="58314752"/>
+        <c:axId val="93479680"/>
+        <c:axId val="93481984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55605888"/>
+        <c:axId val="93479680"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -798,12 +798,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58314752"/>
+        <c:crossAx val="93481984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58314752"/>
+        <c:axId val="93481984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-10"/>
@@ -830,7 +830,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55605888"/>
+        <c:crossAx val="93479680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -843,7 +843,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -853,14 +853,80 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="pl-PL"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Temperatura dla dwóch kart przy zmianie rozmiar</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t>u problemu</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>min dla 1 z 2 GPU</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$54:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$54:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>max dla 1 z 2 GPU</c:v>
           </c:tx>
@@ -896,49 +962,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>81</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>min dla 1 z 2 GPU</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Arkusz1!$B$54:$B$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16384</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Arkusz1!$C$54:$C$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,46 +1018,299 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="153"/>
-        <c:axId val="83897344"/>
-        <c:axId val="83935616"/>
+        <c:axId val="93879296"/>
+        <c:axId val="94203264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83897344"/>
+        <c:axId val="93879296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>rozmiar</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> kolumny i wiersza macierzy</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83935616"/>
+        <c:crossAx val="94203264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83935616"/>
+        <c:axId val="94203264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Temperatura [°C]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83897344"/>
+        <c:crossAx val="93879296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Temperatura</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> dla jednej karty przy zmianie rozmiaru problemu</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>minimalna temperatura</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$47:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$47:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>maksymalna temperatura</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$47:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$D$47:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="103967360"/>
+        <c:axId val="114693632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="103967360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>rozmiar kolumny i</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> wiersza macierzy</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114693632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="114693632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Temperatura [°C]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103967360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1044,16 +1320,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1074,16 +1350,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1105,15 +1381,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1127,6 +1403,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1422,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
